--- a/Zeus/data/TSP/Results/ulysses16.xlsx_long.xlsx
+++ b/Zeus/data/TSP/Results/ulysses16.xlsx_long.xlsx
@@ -77,7 +77,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>95.65061950683594</v>
+        <v>132.18902587890625</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -94,7 +94,7 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>95.65061950683594</v>
+        <v>132.18902587890625</v>
       </c>
       <c r="E3" t="n">
         <v>9999999.0</v>
@@ -125,16 +125,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="D5" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
@@ -142,16 +142,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="D6" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -159,7 +159,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -168,7 +168,7 @@
         <v>37.0</v>
       </c>
       <c r="D7" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -193,7 +193,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -210,7 +210,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -227,16 +227,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="D11" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
@@ -244,16 +244,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="D12" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -261,16 +261,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="D13" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -278,16 +278,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="D14" t="n">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -295,16 +295,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
       <c r="D15" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -312,7 +312,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -321,7 +321,7 @@
         <v>39.0</v>
       </c>
       <c r="D16" t="n">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -329,16 +329,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="D17" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -346,16 +346,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="D18" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
